--- a/salidas/prediccion.xlsx
+++ b/salidas/prediccion.xlsx
@@ -16393,7 +16393,7 @@
         </is>
       </c>
       <c r="C1228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1229">
@@ -54613,7 +54613,7 @@
         </is>
       </c>
       <c r="C4168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4169">

--- a/salidas/prediccion.xlsx
+++ b/salidas/prediccion.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/salidas/prediccion.xlsx
+++ b/salidas/prediccion.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -4459,7 +4459,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730">
@@ -14339,7 +14339,7 @@
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071">
@@ -14417,7 +14417,7 @@
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1077">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110">
@@ -14976,7 +14976,7 @@
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1120">
@@ -15977,7 +15977,7 @@
         </is>
       </c>
       <c r="C1196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197">
@@ -16094,7 +16094,7 @@
         </is>
       </c>
       <c r="C1205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206">
@@ -16237,7 +16237,7 @@
         </is>
       </c>
       <c r="C1216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217">
@@ -16640,7 +16640,7 @@
         </is>
       </c>
       <c r="C1247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1248">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="C1259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1260">
@@ -17654,7 +17654,7 @@
         </is>
       </c>
       <c r="C1325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1326">
@@ -18876,7 +18876,7 @@
         </is>
       </c>
       <c r="C1419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1420">
@@ -18993,7 +18993,7 @@
         </is>
       </c>
       <c r="C1428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1429">
@@ -19032,7 +19032,7 @@
         </is>
       </c>
       <c r="C1431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1432">
@@ -19253,7 +19253,7 @@
         </is>
       </c>
       <c r="C1448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1449">
@@ -19318,7 +19318,7 @@
         </is>
       </c>
       <c r="C1453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1454">
@@ -19643,7 +19643,7 @@
         </is>
       </c>
       <c r="C1478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1479">
@@ -20852,7 +20852,7 @@
         </is>
       </c>
       <c r="C1571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1572">
@@ -23569,7 +23569,7 @@
         </is>
       </c>
       <c r="C1780" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1781">
@@ -29016,7 +29016,7 @@
         </is>
       </c>
       <c r="C2199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2200">
@@ -33449,7 +33449,7 @@
         </is>
       </c>
       <c r="C2540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2541">
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="C2546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2547">
@@ -33956,7 +33956,7 @@
         </is>
       </c>
       <c r="C2579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2580">
@@ -34086,7 +34086,7 @@
         </is>
       </c>
       <c r="C2589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2590">
@@ -35087,7 +35087,7 @@
         </is>
       </c>
       <c r="C2666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2667">
@@ -35204,7 +35204,7 @@
         </is>
       </c>
       <c r="C2675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2676">
@@ -35347,7 +35347,7 @@
         </is>
       </c>
       <c r="C2686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2687">
@@ -35750,7 +35750,7 @@
         </is>
       </c>
       <c r="C2717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2718">
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="C2729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2730">
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="C2784" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2785">
@@ -36764,7 +36764,7 @@
         </is>
       </c>
       <c r="C2795" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2796">
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="C2889" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2890">
@@ -38103,7 +38103,7 @@
         </is>
       </c>
       <c r="C2898" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2899">
@@ -38142,7 +38142,7 @@
         </is>
       </c>
       <c r="C2901" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2902">
@@ -38363,7 +38363,7 @@
         </is>
       </c>
       <c r="C2918" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2919">
@@ -38428,7 +38428,7 @@
         </is>
       </c>
       <c r="C2923" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2924">
@@ -39962,7 +39962,7 @@
         </is>
       </c>
       <c r="C3041" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3042">
@@ -42679,7 +42679,7 @@
         </is>
       </c>
       <c r="C3250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3251">
@@ -48126,7 +48126,7 @@
         </is>
       </c>
       <c r="C3669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3670">
@@ -52559,7 +52559,7 @@
         </is>
       </c>
       <c r="C4010" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4011">
@@ -52637,7 +52637,7 @@
         </is>
       </c>
       <c r="C4016" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4017">
@@ -53066,7 +53066,7 @@
         </is>
       </c>
       <c r="C4049" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4050">
@@ -53196,7 +53196,7 @@
         </is>
       </c>
       <c r="C4059" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4060">
@@ -54197,7 +54197,7 @@
         </is>
       </c>
       <c r="C4136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4137">
@@ -54314,7 +54314,7 @@
         </is>
       </c>
       <c r="C4145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4146">
@@ -54457,7 +54457,7 @@
         </is>
       </c>
       <c r="C4156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4157">
@@ -54860,7 +54860,7 @@
         </is>
       </c>
       <c r="C4187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4188">
@@ -55016,7 +55016,7 @@
         </is>
       </c>
       <c r="C4199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4200">
@@ -55731,7 +55731,7 @@
         </is>
       </c>
       <c r="C4254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4255">
@@ -55874,7 +55874,7 @@
         </is>
       </c>
       <c r="C4265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4266">
@@ -57096,7 +57096,7 @@
         </is>
       </c>
       <c r="C4359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4360">
@@ -57213,7 +57213,7 @@
         </is>
       </c>
       <c r="C4368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4369">
@@ -57252,7 +57252,7 @@
         </is>
       </c>
       <c r="C4371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4372">
@@ -57473,7 +57473,7 @@
         </is>
       </c>
       <c r="C4388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4389">
@@ -57538,7 +57538,7 @@
         </is>
       </c>
       <c r="C4393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4394">
